--- a/biology/Botanique/Halimedaceae/Halimedaceae.xlsx
+++ b/biology/Botanique/Halimedaceae/Halimedaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halimedacées
 Les Halimedaceae (ou Halimedacées) sont une famille d'algues vertes de l'ordre des Bryopsidales. Selon les classifications, elles peuvent être intégrées aux Udoteaceae, sinon elles ne contiennent que le genre Halimeda.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Halimeda, dérivé du grec αλιμεδα / alimeda ou ἁλιμέδων / alimedon, « roi de la mer », dont dérive probablement le mot latin halimon, « pourpier de mer »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Halimeda, dérivé du grec αλιμεδα / alimeda ou ἁλιμέδων / alimedon, « roi de la mer », dont dérive probablement le mot latin halimon, « pourpier de mer ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 février 2016)[2] et ITIS      (14 février 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 février 2016) et ITIS      (14 février 2016) :
 Halimeda J.V.Lamouroux, 1812</t>
         </is>
       </c>
